--- a/Dollars-to-Percentile-Conversion-Guide-Spreadsheet.xlsx
+++ b/Dollars-to-Percentile-Conversion-Guide-Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivaprab/Desktop/Files/Coursera/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\Desktop\Coding\Excel 2 SQL\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1E8B4-3392-3D43-8BE4-FB83D717E1BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D1D70E-E70E-41F9-BAFF-C2313F63EE8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="$ to Percentile Conversion" sheetId="3" r:id="rId1"/>
@@ -975,27 +975,27 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51.83203125" customWidth="1"/>
+    <col min="2" max="2" width="51.875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="8" max="8" width="6.875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -1006,7 +1006,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="46"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="6" t="s">
         <v>24</v>
@@ -1019,7 +1019,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="42"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="9" t="s">
         <v>1</v>
@@ -1034,7 +1034,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="42"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="9" t="s">
         <v>2</v>
@@ -1049,7 +1049,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="41"/>
       <c r="B7" s="9" t="s">
         <v>3</v>
@@ -1065,7 +1065,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="41"/>
       <c r="B8" s="9"/>
       <c r="C8" s="2"/>
@@ -1076,7 +1076,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="42"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="41"/>
       <c r="B9" s="9" t="s">
         <v>4</v>
@@ -1091,7 +1091,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="42"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="9" t="s">
         <v>5</v>
@@ -1106,7 +1106,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="42"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="9" t="s">
         <v>7</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="41"/>
       <c r="B12" s="16" t="s">
         <v>10</v>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="I12" s="42"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="9" t="s">
         <v>12</v>
@@ -1176,7 +1176,7 @@
       <c r="H13" s="8"/>
       <c r="I13" s="42"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
@@ -1197,7 +1197,7 @@
       <c r="H14" s="20"/>
       <c r="I14" s="42"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -1208,7 +1208,7 @@
       <c r="H15" s="33"/>
       <c r="I15" s="42"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -1221,7 +1221,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="42"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="9" t="s">
         <v>15</v>
@@ -1237,7 +1237,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="42"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="9" t="s">
         <v>16</v>
@@ -1253,7 +1253,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="41"/>
       <c r="B19" s="9" t="s">
         <v>23</v>
@@ -1269,7 +1269,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="9" t="s">
         <v>31</v>
@@ -1284,7 +1284,7 @@
       <c r="H20" s="11"/>
       <c r="I20" s="42"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="16" t="s">
         <v>32</v>
@@ -1305,7 +1305,7 @@
       <c r="H21" s="11"/>
       <c r="I21" s="42"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="5" t="s">
         <v>18</v>
@@ -1326,7 +1326,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="42"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1337,7 +1337,7 @@
       <c r="H23" s="11"/>
       <c r="I23" s="42"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="6" t="s">
         <v>25</v>
@@ -1350,7 +1350,7 @@
       <c r="H24" s="11"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="9" t="s">
         <v>19</v>
@@ -1366,7 +1366,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="42"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="9" t="s">
         <v>20</v>
@@ -1382,7 +1382,7 @@
       <c r="H26" s="11"/>
       <c r="I26" s="42"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="41"/>
       <c r="B27" s="9" t="s">
         <v>26</v>
@@ -1403,7 +1403,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="42"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="41"/>
       <c r="B28" s="5" t="s">
         <v>27</v>
@@ -1424,7 +1424,7 @@
       <c r="H28" s="11"/>
       <c r="I28" s="42"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1435,7 +1435,7 @@
       <c r="H29" s="11"/>
       <c r="I29" s="42"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1446,7 +1446,7 @@
       <c r="H30" s="11"/>
       <c r="I30" s="42"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1457,7 +1457,7 @@
       <c r="H31" s="11"/>
       <c r="I31" s="42"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="47" t="s">
         <v>29</v>
@@ -1470,7 +1470,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="42"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="34" t="s">
         <v>0</v>
@@ -1483,7 +1483,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="42"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="35" t="s">
         <v>30</v>
@@ -1496,7 +1496,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="42"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
